--- a/modelsMgmt.xlsx
+++ b/modelsMgmt.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>管理费</t>
+    <t>基金和ABS管理费</t>
   </si>
   <si>
     <t>托管费</t>
@@ -56,6 +56,21 @@
   <si>
     <t>外部机构管理费合计</t>
   </si>
+  <si>
+    <t>当期发生的基金应支付的管理费</t>
+  </si>
+  <si>
+    <t>固定管理费</t>
+  </si>
+  <si>
+    <t>浮动管理费</t>
+  </si>
+  <si>
+    <t>支付销售机构的客户维护费</t>
+  </si>
+  <si>
+    <t>当期发生的基金应支付的托管费</t>
+  </si>
 </sst>
 </file>
 
@@ -67,13 +82,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -220,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,24 +254,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,12 +439,60 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,158 +613,158 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1021,13 +1076,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="6.44444444444444" customWidth="1"/>
     <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
@@ -1038,27 +1093,36 @@
     <col min="8" max="8" width="26.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="22.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="20.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="32.1111111111111" style="1" customWidth="1"/>
+    <col min="12" max="14" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1070,30 +1134,692 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" ht="14.4" spans="1:15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" ht="14.4" spans="1:15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" ht="14.4" spans="1:15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" ht="14.4" spans="1:15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" ht="14.4" spans="1:15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" ht="14.4" spans="1:15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" ht="14.4" spans="1:15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" ht="14.4" spans="1:15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" ht="14.4" spans="1:15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" ht="14.4" spans="1:15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" ht="14.4" spans="1:15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" ht="14.4" spans="1:15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" ht="14.4" spans="1:15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" ht="14.4" spans="1:15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" ht="14.4" spans="1:15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" ht="14.4" spans="1:15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" ht="14.4" spans="1:15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" ht="14.4" spans="1:15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" ht="14.4" spans="1:15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" ht="14.4" spans="1:15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" ht="14.4" spans="1:15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" ht="14.4" spans="1:15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" ht="14.4" spans="1:15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" ht="14.4" spans="1:15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" ht="14.4" spans="1:15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" ht="14.4" spans="1:15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" ht="14.4" spans="1:15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" ht="14.4" spans="1:15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" ht="14.4" spans="1:15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" ht="14.4" spans="1:15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" ht="14.4" spans="1:15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" ht="14.4" spans="1:15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" ht="14.4" spans="1:15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" ht="14.4" spans="1:15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" ht="14.4" spans="1:15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" ht="14.4" spans="1:15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" ht="14.4" spans="1:15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
